--- a/server/assets/archives/users.xlsx
+++ b/server/assets/archives/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Id User</t>
   </si>
@@ -43,28 +43,16 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>"6142158747008b18386008a8"</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>guerrero@coah.conalep.edu.mx</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>"6142167a47008b18386008cd"</t>
-  </si>
-  <si>
-    <t>Daya</t>
-  </si>
-  <si>
-    <t>dayan@coah.conalep.edu.mx</t>
+    <t>"614c05bc6c0ad01be8eafa38"</t>
+  </si>
+  <si>
+    <t>Jenifer</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>jenifer@coah.conalep.edu.mx</t>
   </si>
 </sst>
 </file>
@@ -441,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,24 +480,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
